--- a/biology/Botanique/Prié_blanc/Prié_blanc.xlsx
+++ b/biology/Botanique/Prié_blanc/Prié_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pri%C3%A9_blanc</t>
+          <t>Prié_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prié blanc, ou Agostenga, est un cépage de raisin blanc autochtone originaire de la région autonome de la Vallée d'Aoste, en Italie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pri%C3%A9_blanc</t>
+          <t>Prié_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tradition populaire parle de la présence d’une viticulture à grains blancs dès le VIIIe siècle, qui était probablement le prolongement d’une implantation romaine. Une autre tradition évoque une origine autochtone valaisanne. Selon le livre Wine Grapes, des tests ADN auraient révélé une parenté du Prié blanc avec le cépage castillan Albillo, sans que l'on puisse déterminer qui est le parent des deux.
-Le Prié blanc est cultivé exclusivement dans le Valdigne entre 900 et 1 200 mètres d'altitude, sur le versant adret de la Doire Baltée, autour des communes de La Salle et de Morgex ; cette particularité lui a permis d'être à l'abri des attaques du phylloxéra. Le vignoble du Prié blanc est considéré comme la vigne la plus haute d'Europe[1].
-Le Prié blanc fait partie de l'appellation de vin blanc DOC Vallée d'Aoste Blanc de Morgex et de La Salle. La culture et la taille de la vigne s'effectue le long de pergolas montées sur des étais en bois ou des piliers de pierre et sur lesquelles pousse les pieds de vigne en palissage horizontal. Le système des pergolas permet de mieux protéger le vignoble et les baies sont près du sol et bénéficie ainsi de la chaleur dégagée de la terre réchauffée par le soleil, qui libère lentement la chaleur emmagasinée le jour. Le cépage se reproduit encore par provignage. La variété possède un cycle végétatif très court particulièrement adapté aux conditions climatiques de la Vallée d'Aoste. Son débourrement est tardif, il supporte donc plutôt bien les gelées du printemps. Sa maturité est par contre précoce et a lieu vers la fin août, échappant ainsi aux premières neiges d'automne[2],[3].
+Le Prié blanc est cultivé exclusivement dans le Valdigne entre 900 et 1 200 mètres d'altitude, sur le versant adret de la Doire Baltée, autour des communes de La Salle et de Morgex ; cette particularité lui a permis d'être à l'abri des attaques du phylloxéra. Le vignoble du Prié blanc est considéré comme la vigne la plus haute d'Europe.
+Le Prié blanc fait partie de l'appellation de vin blanc DOC Vallée d'Aoste Blanc de Morgex et de La Salle. La culture et la taille de la vigne s'effectue le long de pergolas montées sur des étais en bois ou des piliers de pierre et sur lesquelles pousse les pieds de vigne en palissage horizontal. Le système des pergolas permet de mieux protéger le vignoble et les baies sont près du sol et bénéficie ainsi de la chaleur dégagée de la terre réchauffée par le soleil, qui libère lentement la chaleur emmagasinée le jour. Le cépage se reproduit encore par provignage. La variété possède un cycle végétatif très court particulièrement adapté aux conditions climatiques de la Vallée d'Aoste. Son débourrement est tardif, il supporte donc plutôt bien les gelées du printemps. Sa maturité est par contre précoce et a lieu vers la fin août, échappant ainsi aux premières neiges d'automne,.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pri%C3%A9_blanc</t>
+          <t>Prié_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Prié blanc est également connu sous les noms suivants[4]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Prié blanc est également connu sous les noms suivants:
 Agostana
 Agostenga
 Agostenga bianca
